--- a/biology/Botanique/Ernest_de_Ganay/Ernest_de_Ganay.xlsx
+++ b/biology/Botanique/Ernest_de_Ganay/Ernest_de_Ganay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest, comte de Ganay, né le 27 mai 1880 à l'ancienne abbaye de Bellevaux en Haute-Saône et mort le 1er septembre 1963 à Cirey, est un historien des jardins et des châteaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest de Ganay est le fils d'Octave de Ganay (1838-1898) et de Charlotte Madeleine Henriette Jodrell. Il épouse Geneviève Chauchat, cousine germaine de Paul Panhard.
 Ernest de Ganay a retrouvé, et publié en 1919, l'ouvrage de François-Henri d'Harcourt, le Traité de la décoration des dehors, des jardins et des parcs, rédigé vers 1774.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Syrinx, poème in Akademos, février 1909.
 Les fleurs du silence, 1911
